--- a/biology/Zoologie/Diphylla_ecaudata/Diphylla_ecaudata.xlsx
+++ b/biology/Zoologie/Diphylla_ecaudata/Diphylla_ecaudata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Vampire à pattes velues (Diphylla ecaudata) est une espèce de chauve-souris hématophage de la famille des Phyllostomidae.
-Cette chauve-souris vampire se nourrit habituellement en suçant le sang des oiseaux la nuit. Une étude en 2016 montre qu'une colonie de ces chauves-souris logeant dans le parc national de Catimbau (en), au nord-est du Brésil, a modifié son régime alimentaire. L'intrusion de familles humaines dans le parc a entraîné une déforestation et la chasse a favorisé la disparition des proies habituelles de la chauve-souris, qui a trouvé comme autre source de nourriture le sang des humains et des poulets des fermes de la région[1].
+Cette chauve-souris vampire se nourrit habituellement en suçant le sang des oiseaux la nuit. Une étude en 2016 montre qu'une colonie de ces chauves-souris logeant dans le parc national de Catimbau (en), au nord-est du Brésil, a modifié son régime alimentaire. L'intrusion de familles humaines dans le parc a entraîné une déforestation et la chasse a favorisé la disparition des proies habituelles de la chauve-souris, qui a trouvé comme autre source de nourriture le sang des humains et des poulets des fermes de la région.
 </t>
         </is>
       </c>
